--- a/biology/Zoologie/Auplopus/Auplopus.xlsx
+++ b/biology/Zoologie/Auplopus/Auplopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auplopus est un genre d'insectes hyménoptère de la famille des Pompilidae.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (19 octobre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (19 octobre 2019) :
 Auplopus albifrons (Dalman, 1823)
 Auplopus carbonarius (Scopoli, 1763)
 Auplopus ichnusus Wolf, 1960
 Auplopus rectus (Haupt, 1926)
-Selon Catalogue of Life                                   (19 octobre 2019)[2] :
+Selon Catalogue of Life                                   (19 octobre 2019) :
 Auplopus abnormalis Dreisbach, 1963
 Auplopus adjunctus (Banks, 1911)
 Auplopus aegina (Smith, 1858)
@@ -721,7 +735,7 @@
 Auplopus yaeyamaensis Shimizu, 1986
 Auplopus yasumatsui Lelej, 1995
 Auplopus zeteki Dreisbach, 1963
-Selon NCBI  (19 octobre 2019)[3] :
+Selon NCBI  (19 octobre 2019) :
 Auplopus adjuncta (Banks, 1911)
 Auplopus albifrons (Dalman, 1823)
 Auplopus caerulescens (Dahlbom, 1843)
